--- a/natmiOut/OldD2/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.3685117871504</v>
+        <v>0.3097005</v>
       </c>
       <c r="H2">
-        <v>2.3685117871504</v>
+        <v>0.619401</v>
       </c>
       <c r="I2">
-        <v>0.244128145510862</v>
+        <v>0.02974992333587455</v>
       </c>
       <c r="J2">
-        <v>0.244128145510862</v>
+        <v>0.02626282361701589</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.88113135279385</v>
+        <v>0.057665</v>
       </c>
       <c r="N2">
-        <v>2.88113135279385</v>
+        <v>0.11533</v>
       </c>
       <c r="O2">
-        <v>0.8943879168117013</v>
+        <v>0.01620051839411325</v>
       </c>
       <c r="P2">
-        <v>0.8943879168117013</v>
+        <v>0.01129612699459945</v>
       </c>
       <c r="Q2">
-        <v>6.823993569420811</v>
+        <v>0.0178588793325</v>
       </c>
       <c r="R2">
-        <v>6.823993569420811</v>
+        <v>0.07143551733</v>
       </c>
       <c r="S2">
-        <v>0.2183452634985638</v>
+        <v>0.0004819641802262948</v>
       </c>
       <c r="T2">
-        <v>0.2183452634985638</v>
+        <v>0.000296668190814577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +596,917 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.3685117871504</v>
+        <v>0.3097005</v>
       </c>
       <c r="H3">
-        <v>2.3685117871504</v>
+        <v>0.619401</v>
       </c>
       <c r="I3">
-        <v>0.244128145510862</v>
+        <v>0.02974992333587455</v>
       </c>
       <c r="J3">
-        <v>0.244128145510862</v>
+        <v>0.02626282361701589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.340212874512415</v>
+        <v>3.081226666666667</v>
       </c>
       <c r="N3">
-        <v>0.340212874512415</v>
+        <v>9.243680000000001</v>
       </c>
       <c r="O3">
-        <v>0.1056120831882987</v>
+        <v>0.8656458734026811</v>
       </c>
       <c r="P3">
-        <v>0.1056120831882987</v>
+        <v>0.9053826686676408</v>
       </c>
       <c r="Q3">
-        <v>0.8057982034229747</v>
+        <v>0.9542574392800002</v>
       </c>
       <c r="R3">
-        <v>0.8057982034229747</v>
+        <v>5.72554463568</v>
       </c>
       <c r="S3">
-        <v>0.02578288201229824</v>
+        <v>0.02575289836974593</v>
       </c>
       <c r="T3">
-        <v>0.02578288201229824</v>
+        <v>0.02377790533312139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>7.33340841624957</v>
+        <v>0.3097005</v>
       </c>
       <c r="H4">
-        <v>7.33340841624957</v>
+        <v>0.619401</v>
       </c>
       <c r="I4">
-        <v>0.755871854489138</v>
+        <v>0.02974992333587455</v>
       </c>
       <c r="J4">
-        <v>0.755871854489138</v>
+        <v>0.02626282361701589</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.88113135279385</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N4">
-        <v>2.88113135279385</v>
+        <v>0.028678</v>
       </c>
       <c r="O4">
-        <v>0.8943879168117013</v>
+        <v>0.002685617887837104</v>
       </c>
       <c r="P4">
-        <v>0.8943879168117013</v>
+        <v>0.002808899071803719</v>
       </c>
       <c r="Q4">
-        <v>21.12851291089893</v>
+        <v>0.002960530313</v>
       </c>
       <c r="R4">
-        <v>21.12851291089893</v>
+        <v>0.017763181878</v>
       </c>
       <c r="S4">
-        <v>0.6760426533131375</v>
+        <v>7.989692627260718E-05</v>
       </c>
       <c r="T4">
-        <v>0.6760426533131375</v>
+        <v>7.376962088078071E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.3097005</v>
+      </c>
+      <c r="H5">
+        <v>0.619401</v>
+      </c>
+      <c r="I5">
+        <v>0.02974992333587455</v>
+      </c>
+      <c r="J5">
+        <v>0.02626282361701589</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.411003</v>
+      </c>
+      <c r="N5">
+        <v>0.822006</v>
+      </c>
+      <c r="O5">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P5">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q5">
+        <v>0.1272878346015</v>
+      </c>
+      <c r="R5">
+        <v>0.509151338406</v>
+      </c>
+      <c r="S5">
+        <v>0.00343516385962972</v>
+      </c>
+      <c r="T5">
+        <v>0.002114480472199143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.725393</v>
+      </c>
+      <c r="H6">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="J6">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.057665</v>
+      </c>
+      <c r="N6">
+        <v>0.11533</v>
+      </c>
+      <c r="O6">
+        <v>0.01620051839411325</v>
+      </c>
+      <c r="P6">
+        <v>0.01129612699459945</v>
+      </c>
+      <c r="Q6">
+        <v>0.157159787345</v>
+      </c>
+      <c r="R6">
+        <v>0.9429587240700001</v>
+      </c>
+      <c r="S6">
+        <v>0.00424132929407438</v>
+      </c>
+      <c r="T6">
+        <v>0.003916061213504883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.725393</v>
+      </c>
+      <c r="H7">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="J7">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N7">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P7">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q7">
+        <v>8.397553588746669</v>
+      </c>
+      <c r="R7">
+        <v>75.57798229872002</v>
+      </c>
+      <c r="S7">
+        <v>0.2266278838639814</v>
+      </c>
+      <c r="T7">
+        <v>0.3138716441346642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.725393</v>
+      </c>
+      <c r="H8">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="J8">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.028678</v>
+      </c>
+      <c r="O8">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P8">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q8">
+        <v>0.02605294015133333</v>
+      </c>
+      <c r="R8">
+        <v>0.234476461362</v>
+      </c>
+      <c r="S8">
+        <v>0.0007031003294630773</v>
+      </c>
+      <c r="T8">
+        <v>0.0009737692142624907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.725393</v>
+      </c>
+      <c r="H9">
+        <v>8.176179000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2618020726803126</v>
+      </c>
+      <c r="J9">
+        <v>0.346672909695253</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.411003</v>
+      </c>
+      <c r="N9">
+        <v>0.822006</v>
+      </c>
+      <c r="O9">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P9">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q9">
+        <v>1.120144699179</v>
+      </c>
+      <c r="R9">
+        <v>6.720868195074001</v>
+      </c>
+      <c r="S9">
+        <v>0.03022975919279376</v>
+      </c>
+      <c r="T9">
+        <v>0.02791143513282143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.117176</v>
+      </c>
+      <c r="I10">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="J10">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.057665</v>
+      </c>
+      <c r="N10">
+        <v>0.11533</v>
+      </c>
+      <c r="O10">
+        <v>0.01620051839411325</v>
+      </c>
+      <c r="P10">
+        <v>0.01129612699459945</v>
+      </c>
+      <c r="Q10">
+        <v>0.002252318013333333</v>
+      </c>
+      <c r="R10">
+        <v>0.01351390808</v>
+      </c>
+      <c r="S10">
+        <v>6.078413906574935E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.61225957447419E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7.33340841624957</v>
-      </c>
-      <c r="H5">
-        <v>7.33340841624957</v>
-      </c>
-      <c r="I5">
-        <v>0.755871854489138</v>
-      </c>
-      <c r="J5">
-        <v>0.755871854489138</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.340212874512415</v>
-      </c>
-      <c r="N5">
-        <v>0.340212874512415</v>
-      </c>
-      <c r="O5">
-        <v>0.1056120831882987</v>
-      </c>
-      <c r="P5">
-        <v>0.1056120831882987</v>
-      </c>
-      <c r="Q5">
-        <v>2.494919957265803</v>
-      </c>
-      <c r="R5">
-        <v>2.494919957265803</v>
-      </c>
-      <c r="S5">
-        <v>0.07982920117600042</v>
-      </c>
-      <c r="T5">
-        <v>0.07982920117600042</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.117176</v>
+      </c>
+      <c r="I11">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="J11">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N11">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P11">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q11">
+        <v>0.1203486052977778</v>
+      </c>
+      <c r="R11">
+        <v>1.08313744768</v>
+      </c>
+      <c r="S11">
+        <v>0.003247892312490453</v>
+      </c>
+      <c r="T11">
+        <v>0.004498216559730824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.117176</v>
+      </c>
+      <c r="I12">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="J12">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.028678</v>
+      </c>
+      <c r="O12">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P12">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q12">
+        <v>0.0003733748142222222</v>
+      </c>
+      <c r="R12">
+        <v>0.003360373328</v>
+      </c>
+      <c r="S12">
+        <v>1.007640417426839E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.395546519351173E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03905866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.117176</v>
+      </c>
+      <c r="I13">
+        <v>0.003751987287507809</v>
+      </c>
+      <c r="J13">
+        <v>0.00496830424902035</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.411003</v>
+      </c>
+      <c r="N13">
+        <v>0.822006</v>
+      </c>
+      <c r="O13">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P13">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q13">
+        <v>0.016053229176</v>
+      </c>
+      <c r="R13">
+        <v>0.09631937505600001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004332344317773377</v>
+      </c>
+      <c r="T13">
+        <v>0.000400009628351273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.3359755</v>
+      </c>
+      <c r="H14">
+        <v>14.671951</v>
+      </c>
+      <c r="I14">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="J14">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.057665</v>
+      </c>
+      <c r="N14">
+        <v>0.11533</v>
+      </c>
+      <c r="O14">
+        <v>0.01620051839411325</v>
+      </c>
+      <c r="P14">
+        <v>0.01129612699459945</v>
+      </c>
+      <c r="Q14">
+        <v>0.4230290272075</v>
+      </c>
+      <c r="R14">
+        <v>1.69211610883</v>
+      </c>
+      <c r="S14">
+        <v>0.01141644078074683</v>
+      </c>
+      <c r="T14">
+        <v>0.007027274994535244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.3359755</v>
+      </c>
+      <c r="H15">
+        <v>14.671951</v>
+      </c>
+      <c r="I15">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="J15">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P15">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q15">
+        <v>22.60380333661334</v>
+      </c>
+      <c r="R15">
+        <v>135.62282001968</v>
+      </c>
+      <c r="S15">
+        <v>0.6100171988564631</v>
+      </c>
+      <c r="T15">
+        <v>0.5632349026401244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.3359755</v>
+      </c>
+      <c r="H16">
+        <v>14.671951</v>
+      </c>
+      <c r="I16">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="J16">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.028678</v>
+      </c>
+      <c r="O16">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P16">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q16">
+        <v>0.07012703512966666</v>
+      </c>
+      <c r="R16">
+        <v>0.420762210778</v>
+      </c>
+      <c r="S16">
+        <v>0.001892544227927151</v>
+      </c>
+      <c r="T16">
+        <v>0.001747404771466936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.3359755</v>
+      </c>
+      <c r="H17">
+        <v>14.671951</v>
+      </c>
+      <c r="I17">
+        <v>0.7046960166963049</v>
+      </c>
+      <c r="J17">
+        <v>0.6220959624387108</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.411003</v>
+      </c>
+      <c r="N17">
+        <v>0.822006</v>
+      </c>
+      <c r="O17">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P17">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q17">
+        <v>3.0151079384265</v>
+      </c>
+      <c r="R17">
+        <v>12.060431753706</v>
+      </c>
+      <c r="S17">
+        <v>0.08136983283116773</v>
+      </c>
+      <c r="T17">
+        <v>0.05008638003258421</v>
       </c>
     </row>
   </sheetData>
